--- a/MarcCompTask/ExcelDataReader/Marc_excel.xlsx
+++ b/MarcCompTask/ExcelDataReader/Marc_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,7 @@
     <sheet name="ServiceDetail" sheetId="8" r:id="rId8"/>
     <sheet name="Chat" sheetId="9" r:id="rId9"/>
     <sheet name="ManageRequests" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -764,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -868,18 +867,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1132,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,10 +1211,10 @@
         <v>22</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
